--- a/biology/Médecine/Néonatalogie/Néonatalogie.xlsx
+++ b/biology/Médecine/Néonatalogie/Néonatalogie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9onatalogie</t>
+          <t>Néonatalogie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La néonatalogie[1] ou néonatologie[2] est une spécialité médicale qui s'attache à prendre en charge les nouveau-nés, définis par un âge inférieur à 28 jours de vie après la naissance. Ceux-ci peuvent être prématurés (nés avant 37 semaines d'aménorrhée), normalement maturés (nés entre 37 et 41 semaines d'aménorrhée + 6 jours inclus) ou postmaturés (nés après 42 semaines d'aménorrhée).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La néonatalogie ou néonatologie est une spécialité médicale qui s'attache à prendre en charge les nouveau-nés, définis par un âge inférieur à 28 jours de vie après la naissance. Ceux-ci peuvent être prématurés (nés avant 37 semaines d'aménorrhée), normalement maturés (nés entre 37 et 41 semaines d'aménorrhée + 6 jours inclus) ou postmaturés (nés après 42 semaines d'aménorrhée).
 Cette spécialité pédiatrique est à l'interface avec l'obstétrique et s'intéresse au fœtus lors de la vie intra-utérine autant qu'au nouveau-né. Elle peut également s'intéresser au devenir des enfants prématurés. C'est une spécialité hospitalière.
 </t>
         </is>
